--- a/public/assets/berkas/absensi-produksi/contoh-excel-produksi.xlsx
+++ b/public/assets/berkas/absensi-produksi/contoh-excel-produksi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tammalocal\public\assets\berkas\absensi-produksi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tamma\tammacorp\public\assets\berkas\absensi-produksi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>Nama</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Terlambat</t>
   </si>
   <si>
-    <t>Plg. Cepat</t>
-  </si>
-  <si>
     <t>Absent</t>
   </si>
   <si>
@@ -66,13 +63,40 @@
   </si>
   <si>
     <t>ID Produksi</t>
+  </si>
+  <si>
+    <t>Plg Cepat</t>
+  </si>
+  <si>
+    <t>Usmiati</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>PRODUKSI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +116,12 @@
       <sz val="10"/>
       <color indexed="72"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="72"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,10 +144,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,15 +432,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.140625" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
@@ -417,7 +452,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -444,22 +479,67 @@
         <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="5">
+        <v>43343</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>